--- a/pred_ohlcv/54_21/2019-10-24 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4437.963579853236</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-7067.271879853237</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9597.879279853238</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-9584.879279853238</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11018.34577985324</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12440.67807985324</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-12439.92807985324</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-13298.02557985324</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-15778.24817985324</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15906.03847985324</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-15896.37927985324</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-15885.98167985324</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17734.90567985324</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-18135.50597985324</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-18121.87037985324</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17978.13407985324</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-19354.45057985324</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-19144.01147985324</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-16322.44937985324</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11978.43657985324</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10837.33827985324</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10632.85537985324</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9634.628479853242</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-10428.17867985324</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-11051.97597985324</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-10582.78607985324</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7316.148379853242</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-13423.65036716106</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-13316.65046716106</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-13637.40056716106</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-13137.40056716106</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-13139.37806716106</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-12739.37806716106</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12530.75406716106</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12552.25716716106</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12573.81696716106</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10564.48406716106</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10592.41406716106</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-10417.69316716106</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-10085.24636716106</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-10184.13036716106</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-10111.75066716106</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10242.16416716107</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10241.16416716107</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-9405.801967161064</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6685.223967161065</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-6630.223967161065</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-6703.518467161065</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-6566.163467161065</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3415.586267161065</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3698.759367161065</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3546.512667161065</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2996.367367161065</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3026.280467161065</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3649.650067161065</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3560.893267161065</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5660.124267161065</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>41923.21290858521</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>43230.6681085852</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>44241.92768340467</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>44083.94668340467</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>39612.27888340467</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>42242.22628340467</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>41995.65548340467</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>40555.47038340467</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>43456.94268340467</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>40261.33868340467</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>40263.21718340467</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>40141.06158340467</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>39485.90908340467</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>36271.35278340467</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>35826.49598340467</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>35826.49598340467</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>34816.60418340467</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>38451.65958340467</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>34730.36988340467</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>38094.43518789368</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>38094.43518789368</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>36050.63398789368</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>39114.62291528365</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>37919.70821528365</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>36915.53051528365</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>37765.57931528366</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>38651.29711528365</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>40830.79391528366</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>38567.98131528366</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>38608.72231528366</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>41701.94861528366</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>41401.94861528366</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>41674.61571528366</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>41610.01571528366</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>41114.08221528366</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>41271.17661528366</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>40314.47011528366</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>40958.33321528367</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>38854.34641528367</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>40013.49051528367</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>40013.76531528366</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>41705.36460384166</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>41676.49608425597</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>40442.34568425597</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>39638.84328425597</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>39138.64638425597</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>39121.56078425597</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>39145.33738425597</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>38383.76038425597</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>39683.52748425597</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>36565.91968425597</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>33628.49848425597</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>33628.49848425597</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>33682.42868425597</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>33682.42868425597</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-24 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-24 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4437.963579853236</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-7067.271879853237</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9597.879279853238</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-9584.879279853238</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-9333.126779853237</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-9315.639979853238</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-9612.089979853239</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11018.34577985324</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12440.67807985324</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-12439.92807985324</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-12330.21427985324</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12954.02077985324</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-12920.59527985324</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-13298.02557985324</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-15778.24817985324</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15906.03847985324</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15907.03847985324</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-15896.37927985324</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-15885.98167985324</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-15885.88167985324</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-17734.90567985324</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-18135.50597985324</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-18121.87037985324</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-17978.13407985324</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-19354.45057985324</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-19144.01147985324</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-16322.44937985324</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-11978.43657985324</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10837.33827985324</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10632.85537985324</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-9634.628479853242</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-10428.17867985324</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-11051.97597985324</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-10582.78607985324</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-7316.148379853242</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-13423.65036716106</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-13316.65046716106</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-13660.00416716106</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-13637.40056716106</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-13137.40056716106</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-13139.37806716106</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-12739.37806716106</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-12530.75406716106</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-12552.25716716106</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-12573.81696716106</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-10564.48406716106</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-10592.41406716106</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-10417.69316716106</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-10085.24636716106</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-10185.13036716106</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-10184.13036716106</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-10111.75066716106</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-10242.16416716107</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10241.16416716107</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-9049.510467161064</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-9052.510467161064</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-8845.096467161064</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-8656.849967161064</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-6685.223967161065</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-6630.223967161065</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-6703.518467161065</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-6566.163467161065</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-3415.586267161065</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-3698.759367161065</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3546.512667161065</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-2996.367367161065</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3026.280467161065</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-3649.650067161065</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3560.893267161065</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-5660.124267161065</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>40476.1638085852</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>38061.5154085852</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>37424.8965085852</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>37148.69900858519</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>35713.1989085852</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>34349.7749085852</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>33427.2195085852</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>33302.0512085852</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>33426.0512085852</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>41923.21290858521</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>43230.6681085852</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>44241.92768340467</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>44083.94668340467</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>41824.10928340467</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>41776.78678340467</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>39612.27888340467</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>42242.22628340467</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>41995.65548340467</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>40555.47038340467</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>43456.94268340467</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>40261.33868340467</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>40263.21718340467</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>30003.42514373004</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>38293.31831528365</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>39114.62291528365</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>37919.70821528365</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>36915.53051528365</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>36919.53051528365</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>37058.39731528366</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>37765.57931528366</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>38651.29711528365</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>40830.79391528366</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>38567.98131528366</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>38608.72231528366</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>41701.94861528366</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>41401.94861528366</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>41434.02091528366</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>41674.61571528366</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>41610.01571528366</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>41114.08221528366</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>41271.17661528366</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>40314.47011528366</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>40958.22321528367</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>40958.33321528367</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>39050.47021528367</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>38854.34641528367</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>40013.49051528367</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>40013.76531528366</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>41705.36460384166</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>41676.49608425597</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>40442.34568425597</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>39638.84328425597</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>39138.64638425597</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>39121.56078425597</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>39145.33738425597</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>38383.76038425597</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>39683.52748425597</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>36565.91968425597</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>33628.49848425597</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
